--- a/日韩数据.xlsx
+++ b/日韩数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\homework\topic-presentation-wonder-woman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D5559-BE9E-44F3-BA1B-E32D7CE31E6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D09153-D1BC-41AB-8FD8-0A3E26E66BAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,6 +1205,18 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43916</v>
+      </c>
+      <c r="B54">
+        <v>1291</v>
+      </c>
+      <c r="C54">
+        <v>98</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1348,9 +1360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B32D8-8056-4211-A4CC-D5653CA9FF73}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2152,6 +2164,18 @@
       <c r="A54" s="1">
         <v>43916</v>
       </c>
+      <c r="B54">
+        <v>9241</v>
+      </c>
+      <c r="C54">
+        <v>104</v>
+      </c>
+      <c r="D54">
+        <v>131</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
